--- a/src/assets/zxsj_mb/zxtb_k12_sysj.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k12_sysj.xlsx
@@ -95,7 +95,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,28 +125,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,7 +164,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,22 +202,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,46 +223,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,31 +247,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,13 +391,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,133 +421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,26 +456,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,25 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,17 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,7 +1035,9 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3"/>

--- a/src/assets/zxsj_mb/zxtb_k12_sysj.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k12_sysj.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>年份</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>实验室</t>
+  </si>
+  <si>
+    <t>社会</t>
   </si>
   <si>
     <t>虚拟实验室</t>
@@ -95,6 +98,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -108,8 +118,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,68 +136,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,22 +189,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +250,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,13 +268,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,79 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,73 +424,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +455,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +498,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -495,50 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +547,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -561,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,7 +1040,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="3"/>
@@ -1162,10 +1165,10 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
